--- a/Listado_LIQUIDACION.xlsx
+++ b/Listado_LIQUIDACION.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>NRO</t>
   </si>
@@ -19,6 +19,15 @@
     <t>NOMBRE Y APELLIDO</t>
   </si>
   <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>QUINCENA</t>
+  </si>
+  <si>
     <t>EPP</t>
   </si>
   <si>
@@ -61,10 +70,16 @@
     <t>Luis Enrique Oviedo</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -128,84 +143,84 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>640000</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>640011</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_LIQUIDACION.xlsx
+++ b/Listado_LIQUIDACION.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>NRO</t>
   </si>
@@ -64,10 +64,10 @@
     <t>TOTAL A PAGAR</t>
   </si>
   <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>Luis Enrique Oviedo</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Anibal David Benitez Bedoya</t>
   </si>
   <si>
     <t>2019</t>
@@ -76,10 +76,94 @@
     <t>5</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Bernardo Gamarra</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Fernando David Ferreira</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Gustavo Valiente</t>
+  </si>
+  <si>
+    <t>Derlis Galeano</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Juan Amarilla</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Juan Jose Arias</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Leonardo Romero</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Rodrigo Bobadilla</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Elvio Martinez</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Oscar Gonzalez</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Cristian Farina</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Alex Munoz</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Edgar Hernan Britez</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Cesar Benitez</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Ramon Liberato</t>
   </si>
 </sst>
 </file>
@@ -129,7 +213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -187,39 +271,1315 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>330000</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>300000</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>640000</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1035000</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>840000</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>750000</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>950000</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>715000</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>480000</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>770000</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>66664</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>533312</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>1152000</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>320000</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>750000</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>330000</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Listado_LIQUIDACION.xlsx
+++ b/Listado_LIQUIDACION.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NRO</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>TOTAL A PAGAR</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>Luis Enrique Oviedo</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>150000</t>
   </si>
 </sst>
 </file>
@@ -111,7 +132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -161,6 +182,50 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>15080</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>850000</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>49300</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>742220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
